--- a/tasks/MultiOmics/data/sample/personal_info.xlsx
+++ b/tasks/MultiOmics/data/sample/personal_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hangsu/Documents/Repository/MetabSubtype/tasks/MultiOmics/data/sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B128F459-CA84-3F4D-B61D-E8BE0A057006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDEF6E0-3232-3840-9048-1F436100A08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21300" yWindow="1620" windowWidth="27240" windowHeight="15940" xr2:uid="{23A9F31D-EFB1-EE40-ADD2-8000DAD4D8E1}"/>
+    <workbookView xWindow="11160" yWindow="1620" windowWidth="27240" windowHeight="15940" xr2:uid="{23A9F31D-EFB1-EE40-ADD2-8000DAD4D8E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -455,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45E5A38-C9CF-344C-9033-1E3A05808F35}">
   <dimension ref="A1:F174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
